--- a/biology/Médecine/Liste_des_herbes_kampo/Liste_des_herbes_kampo.xlsx
+++ b/biology/Médecine/Liste_des_herbes_kampo/Liste_des_herbes_kampo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine kampō (ou kanpō, 漢方) est l'étude et l'adaptation japonaises de la médecine traditionnelle chinoise. En 1967, le ministère japonais de la Santé, du Travail et des Affaires sociales a approuvé le remboursement de quatre médicaments kampo dans le cadre du programme national d'assurance maladie (NHI). En 1976, 82 médicaments kampo ont été approuvés par le ministère de la Santé, du Travail et du Bien-être. Actuellement, 148 médicaments &lt;i id="mwEw"&gt;kampo&lt;/i&gt; sont approuvés pour remboursement[1].
-La 14e édition de la Pharmacopée japonaise (JP) (日本薬局方 Nihon yakkyokuhō) répertorie 165 ingrédients à base de plantes dont l'utilisation dans les remèdes kampo est approuvée[2].
-Tsumura (ツ ム ラ) est la principale entreprise[3] fabriquant 128 des 148 médicaments kampo. La colonne "count" indique dans combien de ces 128 formules l'herbe se trouve. L'herbe la plus commune est Glycyrrhizae Radix (racine de réglisse chinoise) qui est dans 94 des 128 formules de Tsumura. D'autres herbes communes sont par exemple Zingiberis Rhizoma (gingembre) (51 formules sur 128) et Paeoniae Radix (racine de pivoine chinoise) (44 formules sur 128).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine kampō (ou kanpō, 漢方) est l'étude et l'adaptation japonaises de la médecine traditionnelle chinoise. En 1967, le ministère japonais de la Santé, du Travail et des Affaires sociales a approuvé le remboursement de quatre médicaments kampo dans le cadre du programme national d'assurance maladie (NHI). En 1976, 82 médicaments kampo ont été approuvés par le ministère de la Santé, du Travail et du Bien-être. Actuellement, 148 médicaments &lt;i id="mwEw"&gt;kampo&lt;/i&gt; sont approuvés pour remboursement.
+La 14e édition de la Pharmacopée japonaise (JP) (日本薬局方 Nihon yakkyokuhō) répertorie 165 ingrédients à base de plantes dont l'utilisation dans les remèdes kampo est approuvée.
+Tsumura (ツ ム ラ) est la principale entreprise fabriquant 128 des 148 médicaments kampo. La colonne "count" indique dans combien de ces 128 formules l'herbe se trouve. L'herbe la plus commune est Glycyrrhizae Radix (racine de réglisse chinoise) qui est dans 94 des 128 formules de Tsumura. D'autres herbes communes sont par exemple Zingiberis Rhizoma (gingembre) (51 formules sur 128) et Paeoniae Radix (racine de pivoine chinoise) (44 formules sur 128).
 Remarque 1 : ce caractère ne peut pas être affiché correctement sur un ordinateur. "庶" est généralement remplacé en chinois et en japonais. Le "灬" dans "庶" doit être remplacé par "虫".
 Remarque 2 : ce caractère ne peut pas être affiché correctement sur un ordinateur. "梨" est généralement remplacé en chinois. "梨" ou "藜" est généralement remplacé en japonais. Le "勿" dans "藜" doit être remplacé par "刂".
 </t>
